--- a/config/SignConfig.xlsx
+++ b/config/SignConfig.xlsx
@@ -1,145 +1,286 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D\work\egret\h5\jrdh\conf\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView windowWidth="25095" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+  <si>
+    <t>ID（天）</t>
+  </si>
+  <si>
+    <t>奖励的名称</t>
+  </si>
+  <si>
+    <t>奖励的图标</t>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>单个奖励图片大小</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>nums</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励的图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID（天）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>common_icon_q_png</t>
   </si>
   <si>
     <t>common_bg_wpk_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_money01_png</t>
+  </si>
+  <si>
+    <t>icon_money02_png</t>
+  </si>
+  <si>
+    <t>icon_money03_png</t>
+  </si>
+  <si>
+    <t>icon_money04_png</t>
+  </si>
+  <si>
+    <t>icon_money05_png</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>icon_diamond02_png</t>
   </si>
   <si>
     <t>common_bg_wpk_l_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nums</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第2天</t>
-  </si>
-  <si>
-    <t>第3天</t>
-  </si>
-  <si>
-    <t>第4天</t>
-  </si>
-  <si>
-    <t>第5天</t>
-  </si>
-  <si>
-    <t>第6天</t>
-  </si>
-  <si>
-    <t>第7天</t>
-  </si>
-  <si>
-    <t>common_icon_nan_png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,11 +290,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -176,56 +503,342 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFB8CCE4"/>
-      <rgbColor rgb="FFD2DAE4"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00B8CCE4"/>
+      <rgbColor rgb="00D2DAE4"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00A5A5A5"/>
       <rgbColor rgb="00FF00FF"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -281,9 +894,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -514,7 +1124,6 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
@@ -534,7 +1143,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -564,7 +1172,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -590,7 +1197,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -616,7 +1222,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -642,7 +1247,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -668,7 +1272,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -694,7 +1297,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -720,7 +1322,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -746,7 +1347,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -772,7 +1372,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -815,7 +1414,6 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
@@ -835,7 +1433,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -861,7 +1458,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -887,7 +1483,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -913,7 +1508,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -939,7 +1533,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -965,7 +1558,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -991,7 +1583,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1017,7 +1608,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1043,7 +1633,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1069,7 +1658,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1102,8 +1690,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
@@ -1123,7 +1709,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1153,7 +1738,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1179,7 +1763,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1205,7 +1788,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1231,7 +1813,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1257,7 +1838,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1283,7 +1863,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1309,7 +1888,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1335,7 +1913,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1361,7 +1938,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1388,232 +1964,263 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IP10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="20.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="5" customWidth="1"/>
-    <col min="6" max="250" width="9" style="5" customWidth="1"/>
-    <col min="251" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="10.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="20.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="3" customWidth="1"/>
+    <col min="8" max="250" width="9" style="3" customWidth="1"/>
+    <col min="251" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>150000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F9" s="3">
+        <v>300000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" ht="15.95" customHeight="1" spans="1:7">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>100</v>
       </c>
+      <c r="G10" s="3">
+        <v>0.7</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1621,90 +2228,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="256" width="8.75" style="2" customWidth="1"/>
+    <col min="1" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="1" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1712,90 +2321,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="256" width="8.75" style="3" customWidth="1"/>
+    <col min="1" max="256" width="8.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    <row r="1" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
